--- a/Python_demo/222.xlsx
+++ b/Python_demo/222.xlsx
@@ -1,3 +1,98 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00;[RED]\-[$$-C09]#,##0.00"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  </cellStyles>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +375,95 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.52" customWidth="1" style="2" min="1" max="1025"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>transaction_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">price </t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.355</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.255</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.155</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>